--- a/benchmarking/wde/imps/benchmarks-imps-sync.xlsx
+++ b/benchmarking/wde/imps/benchmarks-imps-sync.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noooop\Desktop\测试\bge-m3\1.benchmark_attention_impl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noooop\Desktop\测试\bge-m3-2024-01-29\1.benchmark_attention_impl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD133D2-4A42-4B4D-8EFF-E4B7D276669C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B1D033-8F25-4181-BA17-1FC63FCFD281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53F49C1F-4535-4F64-A648-A66B71F85A25}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{53F49C1F-4535-4F64-A648-A66B71F85A25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -257,25 +257,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>133.7526</c:v>
+                  <c:v>132.69370000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154.26060000000001</c:v>
+                  <c:v>152.4898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>170.7526</c:v>
+                  <c:v>169.27119999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170.68350000000001</c:v>
+                  <c:v>169.08590000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.0753</c:v>
+                  <c:v>183.56989999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188.57550000000001</c:v>
+                  <c:v>186.96960000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>189.21379999999999</c:v>
+                  <c:v>187.7063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -287,25 +287,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.48</c:v>
+                  <c:v>7.3559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.97</c:v>
+                  <c:v>12.815099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.43</c:v>
+                  <c:v>23.1203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.87</c:v>
+                  <c:v>46.3964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.45</c:v>
+                  <c:v>85.481200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>169.42</c:v>
+                  <c:v>167.81489999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>336.63</c:v>
+                  <c:v>334.27679999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -392,25 +392,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8.5</c:v>
+                  <c:v>8.3513000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.36</c:v>
+                  <c:v>13.194599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.15</c:v>
+                  <c:v>22.860800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.29</c:v>
+                  <c:v>43.732100000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.5</c:v>
+                  <c:v>78.488200000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>153.49</c:v>
+                  <c:v>151.83629999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>302.54000000000002</c:v>
+                  <c:v>300.61380000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,25 +467,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>128.62209999999999</c:v>
+                  <c:v>127.9303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.3896</c:v>
+                  <c:v>147.6294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163.9666</c:v>
+                  <c:v>163.0034</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>164.01990000000001</c:v>
+                  <c:v>163.1172</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>177.0112</c:v>
+                  <c:v>176.17189999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180.22810000000001</c:v>
+                  <c:v>180.1276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>180.94909999999999</c:v>
+                  <c:v>180.18639999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -497,25 +497,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7.77</c:v>
+                  <c:v>7.6414999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.48</c:v>
+                  <c:v>13.2623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.4</c:v>
+                  <c:v>24.051600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.77</c:v>
+                  <c:v>48.171599999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.39</c:v>
+                  <c:v>89.185900000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>177.27</c:v>
+                  <c:v>174.37190000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>352</c:v>
+                  <c:v>348.61559999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,7 +542,7 @@
         <c:axId val="358552431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -860,25 +860,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>338.44760000000002</c:v>
+                  <c:v>338.75670000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>434.952</c:v>
+                  <c:v>432.00319999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>493.05279999999999</c:v>
+                  <c:v>491.62299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>588.17899999999997</c:v>
+                  <c:v>589.54380000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>664.33399999999995</c:v>
+                  <c:v>662.56949999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>656.94830000000002</c:v>
+                  <c:v>658.84789999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>697.90319999999997</c:v>
+                  <c:v>697.2867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,25 +890,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.95</c:v>
+                  <c:v>2.7812000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.3365999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.11</c:v>
+                  <c:v>7.6391999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.6</c:v>
+                  <c:v>12.6755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.08</c:v>
+                  <c:v>22.5106</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.63</c:v>
+                  <c:v>45.412300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.27</c:v>
+                  <c:v>85.605400000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -965,25 +965,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>334.2355</c:v>
+                  <c:v>334.49329999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>402.3297</c:v>
+                  <c:v>401.53980000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450.52319999999997</c:v>
+                  <c:v>448.07330000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>517.19880000000001</c:v>
+                  <c:v>512.9923</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>564.19650000000001</c:v>
+                  <c:v>561.19529999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>559.90740000000005</c:v>
+                  <c:v>559.36249999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>588.62699999999995</c:v>
+                  <c:v>583.62969999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,25 +995,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.99</c:v>
+                  <c:v>2.8148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.97</c:v>
+                  <c:v>4.6791</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8800000000000008</c:v>
+                  <c:v>8.4151000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.47</c:v>
+                  <c:v>14.667199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.36</c:v>
+                  <c:v>26.8172</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.06</c:v>
+                  <c:v>53.938899999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108.21</c:v>
+                  <c:v>103.2546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,25 +1070,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>223.62289999999999</c:v>
+                  <c:v>221.2062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>334.65899999999999</c:v>
+                  <c:v>332.77370000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>432.31259999999997</c:v>
+                  <c:v>431.18169999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>544.83640000000003</c:v>
+                  <c:v>547.18790000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>635.37450000000001</c:v>
+                  <c:v>636.76620000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>644.52120000000002</c:v>
+                  <c:v>644.07600000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>689.72</c:v>
+                  <c:v>690.70010000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,25 +1100,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.47</c:v>
+                  <c:v>4.3414000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.98</c:v>
+                  <c:v>5.7229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.25</c:v>
+                  <c:v>8.7933000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.68</c:v>
+                  <c:v>13.756399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.18</c:v>
+                  <c:v>23.521100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.57</c:v>
+                  <c:v>46.537500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.35</c:v>
+                  <c:v>86.492400000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,25 +1175,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>338.41230000000002</c:v>
+                  <c:v>338.41579999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>433.89389999999997</c:v>
+                  <c:v>433.1807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>494.0188</c:v>
+                  <c:v>491.13290000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>586.86950000000002</c:v>
+                  <c:v>587.29989999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>663.85810000000004</c:v>
+                  <c:v>662.24360000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>656.71479999999997</c:v>
+                  <c:v>656.91610000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>697.73850000000004</c:v>
+                  <c:v>697.27470000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,25 +1205,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.95</c:v>
+                  <c:v>2.7833000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6100000000000003</c:v>
+                  <c:v>4.3235000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1</c:v>
+                  <c:v>7.6444000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.63</c:v>
+                  <c:v>12.727600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.1</c:v>
+                  <c:v>22.5212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.65</c:v>
+                  <c:v>45.555999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.29</c:v>
+                  <c:v>85.614099999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,25 +1280,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>306.96730000000002</c:v>
+                  <c:v>307.77820000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>365.08350000000002</c:v>
+                  <c:v>364.0095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.4375</c:v>
+                  <c:v>403.21769999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>451.21879999999999</c:v>
+                  <c:v>451.81209999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>492.77800000000002</c:v>
+                  <c:v>494.23020000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>490.4436</c:v>
+                  <c:v>488.0376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>513.02020000000005</c:v>
+                  <c:v>508.92860000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,25 +1310,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.26</c:v>
+                  <c:v>3.073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.48</c:v>
+                  <c:v>5.1962999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.99</c:v>
+                  <c:v>9.4160000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.73</c:v>
+                  <c:v>16.797899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.47</c:v>
+                  <c:v>30.712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.14</c:v>
+                  <c:v>62.354599999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>124.16</c:v>
+                  <c:v>119.5004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,6 +1355,7 @@
         <c:axId val="395730271"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1373,7 +1374,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1672,25 +1673,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>337.93450000000001</c:v>
+                  <c:v>338.89429999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>456.27980000000002</c:v>
+                  <c:v>456.61759999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.30990000000003</c:v>
+                  <c:v>493.79700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>593.19309999999996</c:v>
+                  <c:v>594.34519999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>667.59280000000001</c:v>
+                  <c:v>667.9769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>658.33540000000005</c:v>
+                  <c:v>658.81719999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>701.43320000000006</c:v>
+                  <c:v>701.54859999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,25 +1703,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.96</c:v>
+                  <c:v>2.7789000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.38</c:v>
+                  <c:v>4.0808999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.14</c:v>
+                  <c:v>7.5953999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.49</c:v>
+                  <c:v>12.5786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.97</c:v>
+                  <c:v>22.349900000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.53</c:v>
+                  <c:v>45.492899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.81</c:v>
+                  <c:v>85.1995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1777,25 +1778,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>334.85520000000002</c:v>
+                  <c:v>334.70170000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>423.1277</c:v>
+                  <c:v>419.51929999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>450.52629999999999</c:v>
+                  <c:v>447.63069999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>521.98040000000003</c:v>
+                  <c:v>518.93209999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>564.59270000000004</c:v>
+                  <c:v>563.82029999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>563.85609999999997</c:v>
+                  <c:v>559.93870000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>587.52089999999998</c:v>
+                  <c:v>584.32690000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1807,25 +1808,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.99</c:v>
+                  <c:v>2.8123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7300000000000004</c:v>
+                  <c:v>4.4622000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8800000000000008</c:v>
+                  <c:v>8.4143000000000008</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.33</c:v>
+                  <c:v>14.491</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.34</c:v>
+                  <c:v>26.688600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.66</c:v>
+                  <c:v>53.900500000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108.41</c:v>
+                  <c:v>103.1606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,25 +1883,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>218.85560000000001</c:v>
+                  <c:v>217.10149999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>341.72489999999999</c:v>
+                  <c:v>339.92469999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>427.10680000000002</c:v>
+                  <c:v>426.58330000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>549.00980000000004</c:v>
+                  <c:v>543.84299999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>633.6558</c:v>
+                  <c:v>635.25049999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>642.31939999999997</c:v>
+                  <c:v>644.45680000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>692.14430000000004</c:v>
+                  <c:v>692.57429999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,25 +1913,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.57</c:v>
+                  <c:v>4.4263000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.85</c:v>
+                  <c:v>5.5932000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3699999999999992</c:v>
+                  <c:v>8.8864000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.57</c:v>
+                  <c:v>13.8607</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.25</c:v>
+                  <c:v>23.609300000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.74</c:v>
+                  <c:v>46.557200000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92.02</c:v>
+                  <c:v>86.359700000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1987,25 +1988,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>338.60770000000002</c:v>
+                  <c:v>333.33359999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>455.65980000000002</c:v>
+                  <c:v>455.90539999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>493.55930000000001</c:v>
+                  <c:v>493.51229999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>592.12350000000004</c:v>
+                  <c:v>591.00480000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>667.33820000000003</c:v>
+                  <c:v>667.68640000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>662.67849999999999</c:v>
+                  <c:v>658.6223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>699.08500000000004</c:v>
+                  <c:v>699.12109999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2017,25 +2018,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.95</c:v>
+                  <c:v>2.8039000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3899999999999997</c:v>
+                  <c:v>4.0869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1</c:v>
+                  <c:v>7.5965999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.51</c:v>
+                  <c:v>12.651199999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.98</c:v>
+                  <c:v>22.3523</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.21</c:v>
+                  <c:v>45.476300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.11</c:v>
+                  <c:v>85.472899999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,25 +2093,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>304.2176</c:v>
+                  <c:v>305.27510000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>376.13749999999999</c:v>
+                  <c:v>374.46710000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>398.22030000000001</c:v>
+                  <c:v>394.45519999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>448.91449999999998</c:v>
+                  <c:v>449.68880000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>485.08870000000002</c:v>
+                  <c:v>485.1454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>482.09719999999999</c:v>
+                  <c:v>481.38189999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>500.15679999999998</c:v>
+                  <c:v>503.78039999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,25 +2123,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.29</c:v>
+                  <c:v>3.1013999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.32</c:v>
+                  <c:v>5.0423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.039999999999999</c:v>
+                  <c:v>9.6305999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.82</c:v>
+                  <c:v>16.9085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.979999999999997</c:v>
+                  <c:v>31.371700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.27</c:v>
+                  <c:v>63.371299999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127.35</c:v>
+                  <c:v>120.9615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2167,7 +2168,7 @@
         <c:axId val="159199327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2485,25 +2486,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>338.44760000000002</c:v>
+                  <c:v>338.75670000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>434.952</c:v>
+                  <c:v>432.00319999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>493.05279999999999</c:v>
+                  <c:v>491.62299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>588.17899999999997</c:v>
+                  <c:v>589.54380000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>664.33399999999995</c:v>
+                  <c:v>662.56949999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>656.94830000000002</c:v>
+                  <c:v>658.84789999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>697.90319999999997</c:v>
+                  <c:v>697.2867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,25 +2516,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.95</c:v>
+                  <c:v>2.7812000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>4.3365999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.11</c:v>
+                  <c:v>7.6391999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.6</c:v>
+                  <c:v>12.6755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.08</c:v>
+                  <c:v>22.5106</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.63</c:v>
+                  <c:v>45.412300000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.27</c:v>
+                  <c:v>85.605400000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2590,25 +2591,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>337.93450000000001</c:v>
+                  <c:v>338.89429999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>456.27980000000002</c:v>
+                  <c:v>456.61759999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>491.30990000000003</c:v>
+                  <c:v>493.79700000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>593.19309999999996</c:v>
+                  <c:v>594.34519999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>667.59280000000001</c:v>
+                  <c:v>667.9769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>658.33540000000005</c:v>
+                  <c:v>658.81719999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>701.43320000000006</c:v>
+                  <c:v>701.54859999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2620,25 +2621,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.96</c:v>
+                  <c:v>2.7789000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.38</c:v>
+                  <c:v>4.0808999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.14</c:v>
+                  <c:v>7.5953999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.49</c:v>
+                  <c:v>12.5786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.97</c:v>
+                  <c:v>22.349900000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.53</c:v>
+                  <c:v>45.492899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.81</c:v>
+                  <c:v>85.1995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,6 +2666,7 @@
         <c:axId val="1585216592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5089,16 +5091,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>85444</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>73959</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>645737</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>96372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>427445</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>44708</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>640355</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>117549</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5125,16 +5127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>596712</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>151838</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>255152</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599737</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>124268</xdr:rowOff>
+      <xdr:rowOff>21176</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5161,16 +5163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>35578</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>59951</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80402</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>377578</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>30701</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>75020</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>58714</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5197,16 +5199,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>601916</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6405</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>725181</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>174493</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>221716</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101335</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>417239</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>16376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5553,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EA1E30-16EF-45A7-BA32-9442FD5CC215}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5597,22 +5599,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>133.7526</v>
+        <v>132.69370000000001</v>
       </c>
       <c r="C3">
-        <v>7.48</v>
+        <v>7.3559999999999999</v>
       </c>
       <c r="D3">
         <v>117.71420000000001</v>
       </c>
       <c r="E3">
-        <v>8.5</v>
+        <v>8.3513000000000002</v>
       </c>
       <c r="F3">
-        <v>128.62209999999999</v>
+        <v>127.9303</v>
       </c>
       <c r="G3">
-        <v>7.77</v>
+        <v>7.6414999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5620,22 +5622,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>154.26060000000001</v>
+        <v>152.4898</v>
       </c>
       <c r="C4">
-        <v>12.97</v>
+        <v>12.815099999999999</v>
       </c>
       <c r="D4">
         <v>149.69730000000001</v>
       </c>
       <c r="E4">
-        <v>13.36</v>
+        <v>13.194599999999999</v>
       </c>
       <c r="F4">
-        <v>148.3896</v>
+        <v>147.6294</v>
       </c>
       <c r="G4">
-        <v>13.48</v>
+        <v>13.2623</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5643,22 +5645,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>170.7526</v>
+        <v>169.27119999999999</v>
       </c>
       <c r="C5">
-        <v>23.43</v>
+        <v>23.1203</v>
       </c>
       <c r="D5">
         <v>172.82079999999999</v>
       </c>
       <c r="E5">
-        <v>23.15</v>
+        <v>22.860800000000001</v>
       </c>
       <c r="F5">
-        <v>163.9666</v>
+        <v>163.0034</v>
       </c>
       <c r="G5">
-        <v>24.4</v>
+        <v>24.051600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5666,22 +5668,22 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>170.68350000000001</v>
+        <v>169.08590000000001</v>
       </c>
       <c r="C6">
-        <v>46.87</v>
+        <v>46.3964</v>
       </c>
       <c r="D6">
         <v>180.62520000000001</v>
       </c>
       <c r="E6">
-        <v>44.29</v>
+        <v>43.732100000000003</v>
       </c>
       <c r="F6">
-        <v>164.01990000000001</v>
+        <v>163.1172</v>
       </c>
       <c r="G6">
-        <v>48.77</v>
+        <v>48.171599999999998</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5689,22 +5691,22 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>185.0753</v>
+        <v>183.56989999999999</v>
       </c>
       <c r="C7">
-        <v>86.45</v>
+        <v>85.481200000000001</v>
       </c>
       <c r="D7">
         <v>201.26320000000001</v>
       </c>
       <c r="E7">
-        <v>79.5</v>
+        <v>78.488200000000006</v>
       </c>
       <c r="F7">
-        <v>177.0112</v>
+        <v>176.17189999999999</v>
       </c>
       <c r="G7">
-        <v>90.39</v>
+        <v>89.185900000000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5712,22 +5714,22 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>188.57550000000001</v>
+        <v>186.96960000000001</v>
       </c>
       <c r="C8">
-        <v>169.42</v>
+        <v>167.81489999999999</v>
       </c>
       <c r="D8">
         <v>208.15110000000001</v>
       </c>
       <c r="E8">
-        <v>153.49</v>
+        <v>151.83629999999999</v>
       </c>
       <c r="F8">
-        <v>180.22810000000001</v>
+        <v>180.1276</v>
       </c>
       <c r="G8">
-        <v>177.27</v>
+        <v>174.37190000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5735,22 +5737,22 @@
         <v>64</v>
       </c>
       <c r="B9">
-        <v>189.21379999999999</v>
+        <v>187.7063</v>
       </c>
       <c r="C9">
-        <v>336.63</v>
+        <v>334.27679999999998</v>
       </c>
       <c r="D9">
         <v>210.53280000000001</v>
       </c>
       <c r="E9">
-        <v>302.54000000000002</v>
+        <v>300.61380000000003</v>
       </c>
       <c r="F9">
-        <v>180.94909999999999</v>
+        <v>180.18639999999999</v>
       </c>
       <c r="G9">
-        <v>352</v>
+        <v>348.61559999999997</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -5793,34 +5795,34 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>338.44760000000002</v>
+        <v>338.75670000000002</v>
       </c>
       <c r="C13">
-        <v>2.95</v>
+        <v>2.7812000000000001</v>
       </c>
       <c r="D13">
-        <v>334.2355</v>
+        <v>334.49329999999998</v>
       </c>
       <c r="E13">
-        <v>2.99</v>
+        <v>2.8148</v>
       </c>
       <c r="F13">
-        <v>223.62289999999999</v>
+        <v>221.2062</v>
       </c>
       <c r="G13">
-        <v>4.47</v>
+        <v>4.3414000000000001</v>
       </c>
       <c r="H13">
-        <v>338.41230000000002</v>
+        <v>338.41579999999999</v>
       </c>
       <c r="I13">
-        <v>2.95</v>
+        <v>2.7833000000000001</v>
       </c>
       <c r="J13">
-        <v>306.96730000000002</v>
+        <v>307.77820000000003</v>
       </c>
       <c r="K13">
-        <v>3.26</v>
+        <v>3.073</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -5828,34 +5830,34 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>434.952</v>
+        <v>432.00319999999999</v>
       </c>
       <c r="C14">
-        <v>4.5999999999999996</v>
+        <v>4.3365999999999998</v>
       </c>
       <c r="D14">
-        <v>402.3297</v>
+        <v>401.53980000000001</v>
       </c>
       <c r="E14">
-        <v>4.97</v>
+        <v>4.6791</v>
       </c>
       <c r="F14">
-        <v>334.65899999999999</v>
+        <v>332.77370000000002</v>
       </c>
       <c r="G14">
-        <v>5.98</v>
+        <v>5.7229999999999999</v>
       </c>
       <c r="H14">
-        <v>433.89389999999997</v>
+        <v>433.1807</v>
       </c>
       <c r="I14">
-        <v>4.6100000000000003</v>
+        <v>4.3235000000000001</v>
       </c>
       <c r="J14">
-        <v>365.08350000000002</v>
+        <v>364.0095</v>
       </c>
       <c r="K14">
-        <v>5.48</v>
+        <v>5.1962999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -5863,34 +5865,34 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>493.05279999999999</v>
+        <v>491.62299999999999</v>
       </c>
       <c r="C15">
-        <v>8.11</v>
+        <v>7.6391999999999998</v>
       </c>
       <c r="D15">
-        <v>450.52319999999997</v>
+        <v>448.07330000000002</v>
       </c>
       <c r="E15">
-        <v>8.8800000000000008</v>
+        <v>8.4151000000000007</v>
       </c>
       <c r="F15">
-        <v>432.31259999999997</v>
+        <v>431.18169999999998</v>
       </c>
       <c r="G15">
-        <v>9.25</v>
+        <v>8.7933000000000003</v>
       </c>
       <c r="H15">
-        <v>494.0188</v>
+        <v>491.13290000000001</v>
       </c>
       <c r="I15">
-        <v>8.1</v>
+        <v>7.6444000000000001</v>
       </c>
       <c r="J15">
-        <v>400.4375</v>
+        <v>403.21769999999998</v>
       </c>
       <c r="K15">
-        <v>9.99</v>
+        <v>9.4160000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -5898,34 +5900,34 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>588.17899999999997</v>
+        <v>589.54380000000003</v>
       </c>
       <c r="C16">
-        <v>13.6</v>
+        <v>12.6755</v>
       </c>
       <c r="D16">
-        <v>517.19880000000001</v>
+        <v>512.9923</v>
       </c>
       <c r="E16">
-        <v>15.47</v>
+        <v>14.667199999999999</v>
       </c>
       <c r="F16">
-        <v>544.83640000000003</v>
+        <v>547.18790000000001</v>
       </c>
       <c r="G16">
-        <v>14.68</v>
+        <v>13.756399999999999</v>
       </c>
       <c r="H16">
-        <v>586.86950000000002</v>
+        <v>587.29989999999998</v>
       </c>
       <c r="I16">
-        <v>13.63</v>
+        <v>12.727600000000001</v>
       </c>
       <c r="J16">
-        <v>451.21879999999999</v>
+        <v>451.81209999999999</v>
       </c>
       <c r="K16">
-        <v>17.73</v>
+        <v>16.797899999999998</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -5933,34 +5935,34 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>664.33399999999995</v>
+        <v>662.56949999999995</v>
       </c>
       <c r="C17">
-        <v>24.08</v>
+        <v>22.5106</v>
       </c>
       <c r="D17">
-        <v>564.19650000000001</v>
+        <v>561.19529999999997</v>
       </c>
       <c r="E17">
-        <v>28.36</v>
+        <v>26.8172</v>
       </c>
       <c r="F17">
-        <v>635.37450000000001</v>
+        <v>636.76620000000003</v>
       </c>
       <c r="G17">
-        <v>25.18</v>
+        <v>23.521100000000001</v>
       </c>
       <c r="H17">
-        <v>663.85810000000004</v>
+        <v>662.24360000000001</v>
       </c>
       <c r="I17">
-        <v>24.1</v>
+        <v>22.5212</v>
       </c>
       <c r="J17">
-        <v>492.77800000000002</v>
+        <v>494.23020000000002</v>
       </c>
       <c r="K17">
-        <v>32.47</v>
+        <v>30.712</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -5968,34 +5970,34 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>656.94830000000002</v>
+        <v>658.84789999999998</v>
       </c>
       <c r="C18">
-        <v>48.63</v>
+        <v>45.412300000000002</v>
       </c>
       <c r="D18">
-        <v>559.90740000000005</v>
+        <v>559.36249999999995</v>
       </c>
       <c r="E18">
-        <v>57.06</v>
+        <v>53.938899999999997</v>
       </c>
       <c r="F18">
-        <v>644.52120000000002</v>
+        <v>644.07600000000002</v>
       </c>
       <c r="G18">
-        <v>49.57</v>
+        <v>46.537500000000001</v>
       </c>
       <c r="H18">
-        <v>656.71479999999997</v>
+        <v>656.91610000000003</v>
       </c>
       <c r="I18">
-        <v>48.65</v>
+        <v>45.555999999999997</v>
       </c>
       <c r="J18">
-        <v>490.4436</v>
+        <v>488.0376</v>
       </c>
       <c r="K18">
-        <v>65.14</v>
+        <v>62.354599999999998</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -6003,34 +6005,34 @@
         <v>64</v>
       </c>
       <c r="B19">
-        <v>697.90319999999997</v>
+        <v>697.2867</v>
       </c>
       <c r="C19">
-        <v>91.27</v>
+        <v>85.605400000000003</v>
       </c>
       <c r="D19">
-        <v>588.62699999999995</v>
+        <v>583.62969999999996</v>
       </c>
       <c r="E19">
-        <v>108.21</v>
+        <v>103.2546</v>
       </c>
       <c r="F19">
-        <v>689.72</v>
+        <v>690.70010000000002</v>
       </c>
       <c r="G19">
-        <v>92.35</v>
+        <v>86.492400000000004</v>
       </c>
       <c r="H19">
-        <v>697.73850000000004</v>
+        <v>697.27470000000005</v>
       </c>
       <c r="I19">
-        <v>91.29</v>
+        <v>85.614099999999993</v>
       </c>
       <c r="J19">
-        <v>513.02020000000005</v>
+        <v>508.92860000000002</v>
       </c>
       <c r="K19">
-        <v>124.16</v>
+        <v>119.5004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -6073,34 +6075,34 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>337.93450000000001</v>
+        <v>338.89429999999999</v>
       </c>
       <c r="C23">
-        <v>2.96</v>
+        <v>2.7789000000000001</v>
       </c>
       <c r="D23">
-        <v>334.85520000000002</v>
+        <v>334.70170000000002</v>
       </c>
       <c r="E23">
-        <v>2.99</v>
+        <v>2.8123</v>
       </c>
       <c r="F23">
-        <v>218.85560000000001</v>
+        <v>217.10149999999999</v>
       </c>
       <c r="G23">
-        <v>4.57</v>
+        <v>4.4263000000000003</v>
       </c>
       <c r="H23">
-        <v>338.60770000000002</v>
+        <v>333.33359999999999</v>
       </c>
       <c r="I23">
-        <v>2.95</v>
+        <v>2.8039000000000001</v>
       </c>
       <c r="J23">
-        <v>304.2176</v>
+        <v>305.27510000000001</v>
       </c>
       <c r="K23">
-        <v>3.29</v>
+        <v>3.1013999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -6108,34 +6110,34 @@
         <v>2</v>
       </c>
       <c r="B24">
-        <v>456.27980000000002</v>
+        <v>456.61759999999998</v>
       </c>
       <c r="C24">
-        <v>4.38</v>
+        <v>4.0808999999999997</v>
       </c>
       <c r="D24">
-        <v>423.1277</v>
+        <v>419.51929999999999</v>
       </c>
       <c r="E24">
-        <v>4.7300000000000004</v>
+        <v>4.4622000000000002</v>
       </c>
       <c r="F24">
-        <v>341.72489999999999</v>
+        <v>339.92469999999997</v>
       </c>
       <c r="G24">
-        <v>5.85</v>
+        <v>5.5932000000000004</v>
       </c>
       <c r="H24">
-        <v>455.65980000000002</v>
+        <v>455.90539999999999</v>
       </c>
       <c r="I24">
-        <v>4.3899999999999997</v>
+        <v>4.0869999999999997</v>
       </c>
       <c r="J24">
-        <v>376.13749999999999</v>
+        <v>374.46710000000002</v>
       </c>
       <c r="K24">
-        <v>5.32</v>
+        <v>5.0423</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -6143,34 +6145,34 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>491.30990000000003</v>
+        <v>493.79700000000003</v>
       </c>
       <c r="C25">
-        <v>8.14</v>
+        <v>7.5953999999999997</v>
       </c>
       <c r="D25">
-        <v>450.52629999999999</v>
+        <v>447.63069999999999</v>
       </c>
       <c r="E25">
-        <v>8.8800000000000008</v>
+        <v>8.4143000000000008</v>
       </c>
       <c r="F25">
-        <v>427.10680000000002</v>
+        <v>426.58330000000001</v>
       </c>
       <c r="G25">
-        <v>9.3699999999999992</v>
+        <v>8.8864000000000001</v>
       </c>
       <c r="H25">
-        <v>493.55930000000001</v>
+        <v>493.51229999999998</v>
       </c>
       <c r="I25">
-        <v>8.1</v>
+        <v>7.5965999999999996</v>
       </c>
       <c r="J25">
-        <v>398.22030000000001</v>
+        <v>394.45519999999999</v>
       </c>
       <c r="K25">
-        <v>10.039999999999999</v>
+        <v>9.6305999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -6178,34 +6180,34 @@
         <v>8</v>
       </c>
       <c r="B26">
-        <v>593.19309999999996</v>
+        <v>594.34519999999998</v>
       </c>
       <c r="C26">
-        <v>13.49</v>
+        <v>12.5786</v>
       </c>
       <c r="D26">
-        <v>521.98040000000003</v>
+        <v>518.93209999999999</v>
       </c>
       <c r="E26">
-        <v>15.33</v>
+        <v>14.491</v>
       </c>
       <c r="F26">
-        <v>549.00980000000004</v>
+        <v>543.84299999999996</v>
       </c>
       <c r="G26">
-        <v>14.57</v>
+        <v>13.8607</v>
       </c>
       <c r="H26">
-        <v>592.12350000000004</v>
+        <v>591.00480000000005</v>
       </c>
       <c r="I26">
-        <v>13.51</v>
+        <v>12.651199999999999</v>
       </c>
       <c r="J26">
-        <v>448.91449999999998</v>
+        <v>449.68880000000001</v>
       </c>
       <c r="K26">
-        <v>17.82</v>
+        <v>16.9085</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -6213,34 +6215,34 @@
         <v>16</v>
       </c>
       <c r="B27">
-        <v>667.59280000000001</v>
+        <v>667.9769</v>
       </c>
       <c r="C27">
-        <v>23.97</v>
+        <v>22.349900000000002</v>
       </c>
       <c r="D27">
-        <v>564.59270000000004</v>
+        <v>563.82029999999997</v>
       </c>
       <c r="E27">
-        <v>28.34</v>
+        <v>26.688600000000001</v>
       </c>
       <c r="F27">
-        <v>633.6558</v>
+        <v>635.25049999999999</v>
       </c>
       <c r="G27">
-        <v>25.25</v>
+        <v>23.609300000000001</v>
       </c>
       <c r="H27">
-        <v>667.33820000000003</v>
+        <v>667.68640000000005</v>
       </c>
       <c r="I27">
-        <v>23.98</v>
+        <v>22.3523</v>
       </c>
       <c r="J27">
-        <v>485.08870000000002</v>
+        <v>485.1454</v>
       </c>
       <c r="K27">
-        <v>32.979999999999997</v>
+        <v>31.371700000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -6248,34 +6250,34 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>658.33540000000005</v>
+        <v>658.81719999999996</v>
       </c>
       <c r="C28">
-        <v>48.53</v>
+        <v>45.492899999999999</v>
       </c>
       <c r="D28">
-        <v>563.85609999999997</v>
+        <v>559.93870000000004</v>
       </c>
       <c r="E28">
-        <v>56.66</v>
+        <v>53.900500000000001</v>
       </c>
       <c r="F28">
-        <v>642.31939999999997</v>
+        <v>644.45680000000004</v>
       </c>
       <c r="G28">
-        <v>49.74</v>
+        <v>46.557200000000002</v>
       </c>
       <c r="H28">
-        <v>662.67849999999999</v>
+        <v>658.6223</v>
       </c>
       <c r="I28">
-        <v>48.21</v>
+        <v>45.476300000000002</v>
       </c>
       <c r="J28">
-        <v>482.09719999999999</v>
+        <v>481.38189999999997</v>
       </c>
       <c r="K28">
-        <v>66.27</v>
+        <v>63.371299999999998</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -6283,34 +6285,34 @@
         <v>64</v>
       </c>
       <c r="B29">
-        <v>701.43320000000006</v>
+        <v>701.54859999999996</v>
       </c>
       <c r="C29">
-        <v>90.81</v>
+        <v>85.1995</v>
       </c>
       <c r="D29">
-        <v>587.52089999999998</v>
+        <v>584.32690000000002</v>
       </c>
       <c r="E29">
-        <v>108.41</v>
+        <v>103.1606</v>
       </c>
       <c r="F29">
-        <v>692.14430000000004</v>
+        <v>692.57429999999999</v>
       </c>
       <c r="G29">
-        <v>92.02</v>
+        <v>86.359700000000004</v>
       </c>
       <c r="H29">
-        <v>699.08500000000004</v>
+        <v>699.12109999999996</v>
       </c>
       <c r="I29">
-        <v>91.11</v>
+        <v>85.472899999999996</v>
       </c>
       <c r="J29">
-        <v>500.15679999999998</v>
+        <v>503.78039999999999</v>
       </c>
       <c r="K29">
-        <v>127.35</v>
+        <v>120.9615</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -6329,100 +6331,100 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>338.44760000000002</v>
+        <v>338.75670000000002</v>
       </c>
       <c r="C34">
-        <v>2.95</v>
+        <v>2.7812000000000001</v>
       </c>
       <c r="D34">
-        <v>337.93450000000001</v>
+        <v>338.89429999999999</v>
       </c>
       <c r="E34">
-        <v>2.96</v>
+        <v>2.7789000000000001</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>434.952</v>
+        <v>432.00319999999999</v>
       </c>
       <c r="C35">
-        <v>4.5999999999999996</v>
+        <v>4.3365999999999998</v>
       </c>
       <c r="D35">
-        <v>456.27980000000002</v>
+        <v>456.61759999999998</v>
       </c>
       <c r="E35">
-        <v>4.38</v>
+        <v>4.0808999999999997</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>493.05279999999999</v>
+        <v>491.62299999999999</v>
       </c>
       <c r="C36">
-        <v>8.11</v>
+        <v>7.6391999999999998</v>
       </c>
       <c r="D36">
-        <v>491.30990000000003</v>
+        <v>493.79700000000003</v>
       </c>
       <c r="E36">
-        <v>8.14</v>
+        <v>7.5953999999999997</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>588.17899999999997</v>
+        <v>589.54380000000003</v>
       </c>
       <c r="C37">
-        <v>13.6</v>
+        <v>12.6755</v>
       </c>
       <c r="D37">
-        <v>593.19309999999996</v>
+        <v>594.34519999999998</v>
       </c>
       <c r="E37">
-        <v>13.49</v>
+        <v>12.5786</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>664.33399999999995</v>
+        <v>662.56949999999995</v>
       </c>
       <c r="C38">
-        <v>24.08</v>
+        <v>22.5106</v>
       </c>
       <c r="D38">
-        <v>667.59280000000001</v>
+        <v>667.9769</v>
       </c>
       <c r="E38">
-        <v>23.97</v>
+        <v>22.349900000000002</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>656.94830000000002</v>
+        <v>658.84789999999998</v>
       </c>
       <c r="C39">
-        <v>48.63</v>
+        <v>45.412300000000002</v>
       </c>
       <c r="D39">
-        <v>658.33540000000005</v>
+        <v>658.81719999999996</v>
       </c>
       <c r="E39">
-        <v>48.53</v>
+        <v>45.492899999999999</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>697.90319999999997</v>
+        <v>697.2867</v>
       </c>
       <c r="C40">
-        <v>91.27</v>
+        <v>85.605400000000003</v>
       </c>
       <c r="D40">
-        <v>701.43320000000006</v>
+        <v>701.54859999999996</v>
       </c>
       <c r="E40">
-        <v>90.81</v>
+        <v>85.1995</v>
       </c>
     </row>
   </sheetData>
